--- a/Output_testing/R1_201907/Country/HKD/MN/MOLDOVA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MOLDOVA_201907_HKD_MN.xlsx
@@ -544,17 +544,23 @@
       <c r="C7" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.430528</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>2.035535</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.437975</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.014632</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>372.7996785342649</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/MOLDOVA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MOLDOVA_201907_HKD_MN.xlsx
@@ -816,136 +816,449 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>43.752893</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>56.83837927770485</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>107.349201</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>64.0866437574861</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>151.672456</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>75.9584706253238</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>58.806768</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>65.94801472220914</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-26.74624604950165</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1.765484</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>2.29349975099291</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>8.702280999999999</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.195194534559599</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>8.446853000000001</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>4.230234364220543</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>9.229384</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.3501615988983</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>69.99572311576728</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>3.783183</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.914646220787394</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.974016</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.178472303334402</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>2.841086</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.422832814647761</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>6.058163</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.793840850317478</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>188.9184306685959</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.451235</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.885266086315252</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0.892522</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.532828739542449</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.574666</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.2877961604338518</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.49721</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.800460685825276</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>732.4976830707481</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.526591</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.6840822841640637</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.349895</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.805876887476896</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2.779968</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.392224555705356</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2.428071</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.722925736278672</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>207.0037286965493</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.964269</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.149890887920205</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>9.199334</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.491931335978268</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>8.697699</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.355859537208313</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.220222</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.489836427374696</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-54.08588555128031</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3377288558061886</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.954021</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.5695431674816158</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.085288</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.5435187036729756</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.182318</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.325893728258164</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>297.8042535437787</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1423372744906163</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.07054603219872854</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.964724</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.081876027515549</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>716.566224268689</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.750106</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>7.469830754163074</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>10.446618</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>6.236550249093535</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>7.807971</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.910278447966058</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.667326</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.7483632644547467</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-85.67546983830418</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.504778473066911</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.847025</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.925001136704338</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.6520550000000001</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.7312378184036585</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-39.85414939079791</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>15.225856</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>19.77956013458854</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>26.533132</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.84007484372757</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>13.784256</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>6.90323762191827</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>4.465159</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.007389140464319</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-57.22120572312941</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -977,136 +1290,581 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>7.340576310404881</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>19.18260174667504</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-82.42719029604275</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>36.01043370001486</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>20.88256895607297</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>45.52657115132142</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.895217035825777</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>26.30401278611793</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>6.214229968782519</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.500735678826451</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>8.98681431588561</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.692325</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>34.011942806191</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.53622</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>26.34295160731699</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MECHANICAL HANDLING EQUIPMENT, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>4.999177120511315</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>STRUCTURES AND PARTS OF STRUCTURES, N.E.S., OF IRON, STEEL OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.734679089281197</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.719695313517085</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.9272746476970428</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>53.88011929537684</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.540398470181058</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1138,136 +1896,449 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>43.752893</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>57.15805803478116</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>107.349201</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>64.87500394329344</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>151.672456</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>76.12544455018953</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>58.806768</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>65.95883780802822</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-26.74624604950165</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1.765484</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.306399188997116</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>8.702280999999999</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.259103085365746</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>8.446853000000001</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.239533377603525</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>9.229384</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.3518602199667</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>69.99572311576728</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3.783183</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.942287895572928</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.974016</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.19296924980489</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>2.841086</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.425960523480412</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>6.058163</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.794955824329567</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>188.9184306685959</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.451235</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.89586947661051</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.892522</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.5393833184606204</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>0.574666</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.2884288015872784</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.49721</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.800920284593537</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>732.4976830707481</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.526591</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.6879298001755779</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.349895</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.8157903611041512</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2.779968</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.395284980651341</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.428071</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.723372610366495</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>207.0037286965493</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.964269</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.178855660298483</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>9.199334</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.559490186849863</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>8.697699</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.365434703178663</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.220222</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.490245047913805</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-54.08588555128031</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.3396283600183939</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.954021</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.5765493879827271</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.085288</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.5447134809037845</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.182318</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.326111327857914</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>297.8042535437787</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1431378286860917</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.07070110835788436</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.964724</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.082053580049021</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>716.566224268689</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.750106</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>7.511843672923373</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>10.446618</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>6.313269010209776</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>7.807971</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.918874125767357</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.667326</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.7484860824026282</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-85.67546983830418</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.5076175222607751</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.847025</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9270344987379503</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.6520550000000001</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.7313578258018505</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-39.85414939079791</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>14.795328</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>19.3283725596756</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>24.497597</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.80478370748389</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>13.346281</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.69858984954228</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>4.450527</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>4.991799388690268</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-55.71914977701511</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1299,136 +2370,531 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1.948575</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>31.95744747150632</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2.905786</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>54.37203163165906</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1.292763</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>24.18972034700369</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>5.075784</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>52.9018294743892</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>5.404503</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>70.58606185631639</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.943126</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>31.86808158552696</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.716954</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>13.41538763227729</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-34.1669054072915</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS FOR LIQUIDS, WHETHER OR NOT FITTED WITH A MEASURING DEVICE; LIQUID ELEVATORS; PARTS FOR SUCH PUMPS AND LIQUID ELEVATORS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.606906168218424</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.7688288656170689</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5.70882824851452</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.947287411611989</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.479723127553905</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>12.48875307698838</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.7347502780275618</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.259665382240478</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.114135037440128</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-1.063056594190848</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>0.6438469999999999</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>6.71042822184653</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0.504684</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>6.591476781841584</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.590723430705357</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.3998116860201195</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-90.92006238287276</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.3830647651146107</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.5886986002618314</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.22038263645227</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.6891292279256503</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-87.01684836471755</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OTHER CRUDE MINERALS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.912409</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>9.509487663166514</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>6.358149129870054</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>0.645109</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>10.58005823788972</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>2.832432</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>29.52072717471885</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.673809</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>8.800351068977609</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.921172</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>15.10760725259352</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
